--- a/excel/teams_data.xlsx
+++ b/excel/teams_data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="206">
   <si>
     <t>DATOS EQUIPOS PREFERENTE 2020-2021</t>
   </si>
@@ -613,10 +613,13 @@
     <t>www.emfvillarejo.es</t>
   </si>
   <si>
-    <t>CD Móstoles URJC "B"</t>
-  </si>
-  <si>
-    <t>@CDMostoles</t>
+    <t>CD Móstoles "B" - Moraleja</t>
+  </si>
+  <si>
+    <t>@CDMostoles_B</t>
+  </si>
+  <si>
+    <t>@cdmostoles_moraleja</t>
   </si>
   <si>
     <t>cdmostoles</t>
@@ -646,7 +649,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -709,8 +712,10 @@
       <name val="Arial"/>
     </font>
     <font>
-      <color theme="5"/>
-      <name val="Arial"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
     </font>
     <font>
       <color rgb="FF4285F4"/>
@@ -721,7 +726,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -786,6 +791,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFAC0303"/>
         <bgColor rgb="FFAC0303"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1155CC"/>
+        <bgColor rgb="FF1155CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -901,7 +912,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="72">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -975,7 +986,7 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="11" fillId="2" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="13" fillId="2" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="12" fillId="4" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -999,7 +1010,7 @@
     <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="14" fillId="6" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="7" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -1013,18 +1024,23 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="12" fillId="9" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="9" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="12" fillId="9" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="12" fillId="10" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="5" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="11" fillId="11" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="14" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="11" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="12" fillId="11" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="10" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1033,12 +1049,14 @@
     <xf borderId="9" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="8" fillId="9" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="12" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1995,6 +2013,7 @@
         <v>137</v>
       </c>
       <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
       <c r="I30" s="42"/>
       <c r="J30" s="43"/>
       <c r="K30" s="42"/>
@@ -2215,25 +2234,29 @@
         <v>179</v>
       </c>
       <c r="G39" s="50"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="51"/>
-      <c r="M39" s="52"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="54"/>
+      <c r="N39" s="55"/>
       <c r="O39" s="41"/>
-      <c r="P39" s="45"/>
+      <c r="P39" s="56"/>
       <c r="Q39" s="41"/>
-      <c r="R39" s="45"/>
-      <c r="S39" s="53"/>
-      <c r="U39" s="53"/>
-      <c r="V39" s="54"/>
-      <c r="W39" s="53"/>
+      <c r="R39" s="56"/>
+      <c r="S39" s="57"/>
+      <c r="T39" s="58"/>
+      <c r="U39" s="57"/>
+      <c r="V39" s="59"/>
+      <c r="W39" s="58"/>
+      <c r="X39" s="59"/>
       <c r="Y39" s="41"/>
-      <c r="Z39" s="45"/>
+      <c r="Z39" s="56"/>
       <c r="AA39" s="41"/>
-      <c r="AB39" s="45"/>
+      <c r="AB39" s="56"/>
       <c r="AC39" s="41"/>
-      <c r="AD39" s="45"/>
+      <c r="AD39" s="56"/>
       <c r="AE39" s="21"/>
       <c r="AF39" s="21"/>
     </row>
@@ -2330,66 +2353,68 @@
       <c r="AF43" s="21"/>
     </row>
     <row r="44">
-      <c r="A44" s="55" t="s">
+      <c r="A44" s="60" t="s">
         <v>198</v>
       </c>
-      <c r="B44" s="56"/>
-      <c r="C44" s="57" t="s">
+      <c r="B44" s="61"/>
+      <c r="C44" s="62" t="s">
         <v>199</v>
       </c>
-      <c r="D44" s="58" t="s">
-        <v>199</v>
-      </c>
-      <c r="E44" s="59" t="s">
+      <c r="D44" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="F44" s="60" t="s">
+      <c r="E44" s="64" t="s">
         <v>201</v>
       </c>
-      <c r="G44" s="61"/>
-      <c r="H44" s="61"/>
-      <c r="I44" s="61"/>
-      <c r="J44" s="61"/>
-      <c r="K44" s="61"/>
-      <c r="L44" s="61"/>
-      <c r="M44" s="61"/>
-      <c r="N44" s="61"/>
-      <c r="O44" s="61"/>
-      <c r="P44" s="61"/>
-      <c r="Q44" s="61"/>
-      <c r="R44" s="62"/>
-      <c r="S44" s="56"/>
-      <c r="T44" s="61"/>
-      <c r="U44" s="61"/>
-      <c r="V44" s="61"/>
-      <c r="W44" s="61"/>
-      <c r="X44" s="61"/>
-      <c r="Y44" s="61"/>
-      <c r="Z44" s="61"/>
-      <c r="AA44" s="61"/>
-      <c r="AB44" s="61"/>
-      <c r="AC44" s="61"/>
-      <c r="AD44" s="62"/>
-      <c r="AE44" s="62"/>
-      <c r="AF44" s="62"/>
+      <c r="F44" s="65" t="s">
+        <v>202</v>
+      </c>
+      <c r="G44" s="66"/>
+      <c r="H44" s="67"/>
+      <c r="I44" s="68"/>
+      <c r="J44" s="68"/>
+      <c r="K44" s="68"/>
+      <c r="L44" s="68"/>
+      <c r="M44" s="68"/>
+      <c r="N44" s="68"/>
+      <c r="O44" s="68"/>
+      <c r="P44" s="68"/>
+      <c r="Q44" s="68"/>
+      <c r="R44" s="69"/>
+      <c r="S44" s="61"/>
+      <c r="T44" s="68"/>
+      <c r="U44" s="68"/>
+      <c r="V44" s="68"/>
+      <c r="W44" s="68"/>
+      <c r="X44" s="68"/>
+      <c r="Y44" s="68"/>
+      <c r="Z44" s="68"/>
+      <c r="AA44" s="68"/>
+      <c r="AB44" s="68"/>
+      <c r="AC44" s="68"/>
+      <c r="AD44" s="69"/>
+      <c r="AE44" s="69"/>
+      <c r="AF44" s="69"/>
     </row>
     <row r="46">
-      <c r="A46" s="63" t="s">
-        <v>202</v>
+      <c r="A46" s="70" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="64" t="s">
-        <v>203</v>
+      <c r="A47" s="71" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="48" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="16">
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="S4:T4"/>
     <mergeCell ref="U4:V4"/>
@@ -2404,24 +2429,6 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="Y39:Z39"/>
-    <mergeCell ref="AA39:AB39"/>
-    <mergeCell ref="AC39:AD39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="U39:V39"/>
-    <mergeCell ref="W39:X39"/>
   </mergeCells>
   <dataValidations>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B5:B44">
